--- a/fhir/core/ValueSet-dk-core-NPUBasicObservation.xlsx
+++ b/fhir/core/ValueSet-dk-core-NPUBasicObservation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Dk Core NPU Basic Observation</t>
+    <t>DK Core NPU Basic Observation</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-08T21:51:35+01:00</t>
+    <t>2024-05-06T15:28:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/core/ValueSet-dk-core-NPUBasicObservation.xlsx
+++ b/fhir/core/ValueSet-dk-core-NPUBasicObservation.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from unknown" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T15:28:33+02:00</t>
+    <t>2024-12-11T09:54:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/ValueSet-dk-core-NPUBasicObservation.xlsx
+++ b/fhir/core/ValueSet-dk-core-NPUBasicObservation.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T09:54:35+01:00</t>
+    <t>2024-12-11T10:20:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/ValueSet-dk-core-NPUBasicObservation.xlsx
+++ b/fhir/core/ValueSet-dk-core-NPUBasicObservation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T10:20:02+01:00</t>
+    <t>2025-02-01T19:23:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,73 +105,37 @@
     <t>NPU03011</t>
   </si>
   <si>
-    <t>Hb(Fe; O₂-bind.;aB)—Oxygen(O₂); sat. = ?</t>
-  </si>
-  <si>
     <t>NPU27280</t>
   </si>
   <si>
-    <t>Hb(Fe; O₂-bind.;aB)—Oxygen(O₂); sat.(Pulse oximetry) = ?</t>
-  </si>
-  <si>
     <t>NPU04034</t>
   </si>
   <si>
-    <t>Pt(spec.)—Blood; temp. = ? °C</t>
-  </si>
-  <si>
     <t>NPU08676</t>
   </si>
   <si>
-    <t>Pt—Body; temp. = ? °C</t>
-  </si>
-  <si>
     <t>NPU58033</t>
   </si>
   <si>
-    <t>Artery(spec.)—Blood pressure(systolic); pr.(proc.) = ? mmHg</t>
-  </si>
-  <si>
     <t>NPU57947</t>
   </si>
   <si>
-    <t>Artery(spec.)—Blood; pr.(systolic;proc.) = ? mmHg</t>
-  </si>
-  <si>
     <t>NPU58034</t>
   </si>
   <si>
-    <t>Artery(spec.)—Blood pressure(diastolic); pr.(proc.) = ? mmHg</t>
-  </si>
-  <si>
     <t>NPU57948</t>
   </si>
   <si>
-    <t>Artery(spec.)—Blood; pr.(diastolic;proc.) = ? mmHg</t>
-  </si>
-  <si>
     <t>NPU21692</t>
   </si>
   <si>
-    <t>Heart—Systole; freq. = ? * 1/min</t>
-  </si>
-  <si>
     <t>NPU03794</t>
   </si>
   <si>
-    <t>Pt—Body; height = ? m</t>
-  </si>
-  <si>
     <t>NPU03804</t>
   </si>
   <si>
-    <t>Pt—Body; mass = ? kg</t>
-  </si>
-  <si>
     <t>NPU27281</t>
-  </si>
-  <si>
-    <t>Pt—Body; mass coefficient(mass/squared height) = ? kg/m²</t>
   </si>
   <si>
     <t/>
@@ -469,112 +433,88 @@
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>30</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>34</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>46</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>48</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>50</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>52</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/core/ValueSet-dk-core-NPUBasicObservation.xlsx
+++ b/fhir/core/ValueSet-dk-core-NPUBasicObservation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T19:23:09+01:00</t>
+    <t>2025-12-19T17:27:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
+    <t>HL7 Denmark (http://www.hl7.dk, dk-affiliate@hl7.dk)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -114,15 +114,9 @@
     <t>NPU08676</t>
   </si>
   <si>
-    <t>NPU58033</t>
-  </si>
-  <si>
     <t>NPU57947</t>
   </si>
   <si>
-    <t>NPU58034</t>
-  </si>
-  <si>
     <t>NPU57948</t>
   </si>
   <si>
@@ -144,7 +138,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>urn:oid:1.2.208.176.2.1</t>
+    <t>http://npu-terminology.org</t>
   </si>
 </sst>
 </file>
@@ -411,7 +405,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -493,28 +487,16 @@
       <c r="A12" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="B13" t="s" s="2">
         <v>41</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
